--- a/output_tables/semiconductors.xlsx
+++ b/output_tables/semiconductors.xlsx
@@ -476,17 +476,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$77.9 billion</t>
+          <t>$83.1 billion</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$21.1 billion</t>
+          <t>$23.9 billion</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>110,800</t>
+          <t>122,000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,17 +501,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsung Electronics</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$197.7 billion</t>
+          <t>$60.9 billion</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$26.4 billion</t>
+          <t>$13.3 billion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taiwan Semiconductor Manufacturing Company (TSMC)</t>
+          <t>SK Hynix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$45.5 billion</t>
+          <t>$30.2 billion</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$14.9 billion</t>
+          <t>$9.2 billion</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>48,000</t>
+          <t>70,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>South Korea</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SK Hynix</t>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$26.8 billion</t>
+          <t>$14.8 billion</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$4.4 billion</t>
+          <t>$4.3 billion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>35,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>United States</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$23.4 billion</t>
+          <t>$14.4 billion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$6.3 billion</t>
+          <t>$3.2 billion</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>37,800</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
